--- a/similarities/split_global/harmonic_similarity_timestamps_26.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,602 +484,636 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['G/5', 'C', 'E:min/5']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C']]</t>
+          <t>['C', 'F:maj', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:55.230000', '0:01:07.670000')]</t>
+          <t>('0:00:04.074863', '0:00:12.503707')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:08.080000', '0:01:23.820000')]</t>
+          <t>('0:01:58.227000', '0:02:16.724000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=4.074863</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=118.227</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000')]</t>
+          <t>('0:00:08.180000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+          <t>('0:00:18.240000', '0:00:29.100000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=8.18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=18.24</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:00:22.100000', '0:00:29.560000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:00:10.240000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=22.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:7', 'G:min', 'C:min', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:07.900000', '0:00:21.680000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+          <t>('0:00:24.760000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:14.360000', '0:00:19.220000'), ('0:00:01.540000', '0:00:06.680000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:37.120000', '0:00:40.300000'), ('0:00:10.380000', '0:00:16.320000'), ('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=37.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C:7', 'F:min', 'G:hdim7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:7', 'C:min', 'D:hdim7/C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000')]</t>
+          <t>('0:01:05.820000', '0:01:17.640000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:00:23.860000', '0:00:31.840000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=65.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.86</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000'), ('0:00:23.910000', '0:00:25.870000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:54.820000', '0:01:01.800000')]</t>
+          <t>('0:00:08.740000', '0:00:17.660000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:18.920000', '0:00:21.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:04:02.220000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=242.22</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+          <t>('0:00:32.400000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.360000', '0:00:18.440000')]</t>
+          <t>('0:00:33', '0:00:48.220000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_47</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db:maj6', 'Db:7/3']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db:maj6', 'Db:7']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:36.030000', '0:00:37.750000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:52.390000', '0:00:58.020000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=36.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=52.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:26.160000', '0:00:36.860000')]</t>
+          <t>('0:00:01.260000', '0:00:05.920000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.980000', '0:00:24.840000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=26.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=8.98']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G', 'C', 'D:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D', 'G', 'A:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
+          <t>('0:00:48.172947', '0:00:53.606417')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:30.380000')]</t>
+          <t>('0:00:26.606000', '0:00:28.734000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=48.172947</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=26.606</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_189</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'D:7/C', 'G:maj/B'], ['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['A#:maj/F', 'F:maj', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb'], ['Bb', 'F:7', 'Bb'], ['C:min', 'F:7', 'Bb']]</t>
+          <t>['C', 'G', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:51.800000', '0:00:59.900000'), ('0:01:07.760000', '0:01:17.500000'), ('0:00:05.800000', '0:00:11.860000')]</t>
+          <t>('0:00:19.860000', '0:00:25.540000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.950000', '0:00:15.800000'), ('0:00:07.590000', '0:00:14.680000'), ('0:00:26.110000', '0:00:31.880000')]</t>
+          <t>('0:00:09.619433', '0:00:16.956938')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=5.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=19.86</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=11.95', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.11']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=9.619433</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1088,102 +1122,104 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F:maj']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.155000', '0:00:20.379000'), ('0:00:39.976000', '0:00:44.640000')]</t>
+          <t>('0:00:46.590000', '0:00:53.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:51.800000', '0:00:59.900000'), ('0:01:04.660000', '0:01:11.060000')]</t>
+          <t>('0:00:25.110000', '0:00:28.410000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=13.155', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=46.59</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=25.11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min', 'G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B:min', 'F#:min', 'B:min', 'F#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:01:24.540000', '0:01:38.020000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:44', '0:01:01.060000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:00:37.927913', '0:00:43.802561')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=84.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=37.927913</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
